--- a/Canadian-Parliament/Abortion/results.xlsx
+++ b/Canadian-Parliament/Abortion/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A45103-F098-446D-B8B2-85257DFDB3D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620C9CDF-51C8-45CB-8D5B-CDBA719CFAA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="127">
   <si>
     <t>Topic:</t>
   </si>
@@ -359,6 +359,48 @@
   </si>
   <si>
     <t>Abortion06 (1000)</t>
+  </si>
+  <si>
+    <t>0.390</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>Abortion06 (500)</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.760</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>Abortion07</t>
   </si>
 </sst>
 </file>
@@ -676,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,9 +742,13 @@
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,8 +797,20 @@
       <c r="P1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -801,8 +859,20 @@
       <c r="P2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -851,8 +921,20 @@
       <c r="P3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -901,8 +983,20 @@
       <c r="P4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -951,8 +1045,20 @@
       <c r="P5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1001,8 +1107,20 @@
       <c r="P6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1051,8 +1169,20 @@
       <c r="P7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1101,8 +1231,20 @@
       <c r="P9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1293,20 @@
       <c r="P10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1201,8 +1355,20 @@
       <c r="P11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1251,8 +1417,20 @@
       <c r="P12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1301,8 +1479,20 @@
       <c r="P13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1351,8 +1541,20 @@
       <c r="P14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1401,8 +1603,20 @@
       <c r="P16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1451,8 +1665,20 @@
       <c r="P17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1501,8 +1727,20 @@
       <c r="P18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1551,8 +1789,20 @@
       <c r="P19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1601,8 +1851,20 @@
       <c r="P20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1651,8 +1913,20 @@
       <c r="P21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1701,8 +1975,20 @@
       <c r="P23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1751,8 +2037,20 @@
       <c r="P24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1801,8 +2099,20 @@
       <c r="P25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1851,8 +2161,20 @@
       <c r="P26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1901,8 +2223,20 @@
       <c r="P27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1951,8 +2285,20 @@
       <c r="P28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2347,20 @@
       <c r="P30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2051,8 +2409,20 @@
       <c r="P31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2101,8 +2471,20 @@
       <c r="P32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>115</v>
+      </c>
+      <c r="S32" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2151,8 +2533,20 @@
       <c r="P33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2201,8 +2595,20 @@
       <c r="P34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2251,8 +2657,20 @@
       <c r="P35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>58</v>
       </c>
@@ -2289,8 +2707,20 @@
       <c r="P37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2</v>
+      </c>
+      <c r="S37" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>3</v>
       </c>
@@ -2327,8 +2757,20 @@
       <c r="P38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>7</v>
       </c>
@@ -2365,8 +2807,20 @@
       <c r="P39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>9</v>
       </c>
@@ -2403,8 +2857,20 @@
       <c r="P40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>11</v>
       </c>
@@ -2441,8 +2907,20 @@
       <c r="P41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" t="s">
+        <v>11</v>
+      </c>
+      <c r="T41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>61</v>
       </c>
@@ -2479,8 +2957,20 @@
       <c r="P43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>61</v>
+      </c>
+      <c r="R43" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +3007,20 @@
       <c r="P44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>7</v>
       </c>
@@ -2555,8 +3057,20 @@
       <c r="P45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>9</v>
       </c>
@@ -2593,8 +3107,20 @@
       <c r="P46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>9</v>
+      </c>
+      <c r="R46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>11</v>
       </c>
@@ -2631,8 +3157,20 @@
       <c r="P47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" t="s">
+        <v>11</v>
+      </c>
+      <c r="T47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>63</v>
       </c>
@@ -2669,8 +3207,20 @@
       <c r="P49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>63</v>
+      </c>
+      <c r="R49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s">
+        <v>63</v>
+      </c>
+      <c r="T49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +3257,20 @@
       <c r="P50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>7</v>
       </c>
@@ -2745,8 +3307,20 @@
       <c r="P51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" t="s">
+        <v>28</v>
+      </c>
+      <c r="S51" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>9</v>
       </c>
@@ -2783,8 +3357,20 @@
       <c r="P52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>9</v>
+      </c>
+      <c r="R52" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>11</v>
       </c>
@@ -2820,6 +3406,18 @@
       </c>
       <c r="P53" t="s">
         <v>10</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>11</v>
+      </c>
+      <c r="R53" t="s">
+        <v>10</v>
+      </c>
+      <c r="S53" t="s">
+        <v>11</v>
+      </c>
+      <c r="T53" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Canadian-Parliament/Abortion/results.xlsx
+++ b/Canadian-Parliament/Abortion/results.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620C9CDF-51C8-45CB-8D5B-CDBA719CFAA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFF520-8A3D-4D4E-A6A6-63AF04627DEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
+    <sheet name="database" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="162">
   <si>
     <t>Topic:</t>
   </si>
@@ -401,13 +402,125 @@
   </si>
   <si>
     <t>Abortion07</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>0.320</t>
+  </si>
+  <si>
+    <t>Abortion_BQ</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>Abortion_C</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>Abortion_L</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>Abortion_ND</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>known_Lenght</t>
+  </si>
+  <si>
+    <t>unknown_Lenght</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,14 +546,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,9 +868,17 @@
     <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,8 +939,32 @@
       <c r="T1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -871,8 +1025,32 @@
       <c r="T2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -933,8 +1111,32 @@
       <c r="T3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -995,8 +1197,32 @@
       <c r="T4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1283,32 @@
       <c r="T5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1119,8 +1369,32 @@
       <c r="T6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1455,32 @@
       <c r="T7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1243,8 +1541,32 @@
       <c r="T9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1627,32 @@
       <c r="T10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1367,8 +1713,32 @@
       <c r="T11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V11" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1429,8 +1799,32 @@
       <c r="T12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1491,8 +1885,32 @@
       <c r="T13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1553,8 +1971,32 @@
       <c r="T14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1615,8 +2057,32 @@
       <c r="T16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1677,8 +2143,32 @@
       <c r="T17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1739,8 +2229,32 @@
       <c r="T18" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" t="s">
+        <v>129</v>
+      </c>
+      <c r="W18" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1801,8 +2315,32 @@
       <c r="T19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1863,8 +2401,32 @@
       <c r="T20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1925,8 +2487,32 @@
       <c r="T21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1987,8 +2573,32 @@
       <c r="T23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2049,8 +2659,32 @@
       <c r="T24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>130</v>
+      </c>
+      <c r="W24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2111,8 +2745,32 @@
       <c r="T25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" t="s">
+        <v>131</v>
+      </c>
+      <c r="W25" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2173,8 +2831,32 @@
       <c r="T26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2235,8 +2917,32 @@
       <c r="T27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2297,8 +3003,32 @@
       <c r="T28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2359,8 +3089,32 @@
       <c r="T30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>24</v>
+      </c>
+      <c r="V30" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>24</v>
+      </c>
+      <c r="X30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2421,8 +3175,32 @@
       <c r="T31" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" t="s">
+        <v>10</v>
+      </c>
+      <c r="W31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2483,8 +3261,32 @@
       <c r="T32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" t="s">
+        <v>47</v>
+      </c>
+      <c r="W32" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2545,8 +3347,32 @@
       <c r="T33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2607,8 +3433,32 @@
       <c r="T34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2669,8 +3519,44 @@
       <c r="T35" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" t="s">
+        <v>104</v>
+      </c>
+      <c r="W35" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
       <c r="E37" t="s">
         <v>58</v>
       </c>
@@ -2719,8 +3605,44 @@
       <c r="T37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" t="s">
+        <v>2</v>
+      </c>
+      <c r="W37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +3691,44 @@
       <c r="T38" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" t="s">
+        <v>132</v>
+      </c>
+      <c r="W38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
@@ -2819,8 +3777,44 @@
       <c r="T39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" t="s">
+        <v>23</v>
+      </c>
+      <c r="W39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
@@ -2869,8 +3863,44 @@
       <c r="T40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" t="s">
+        <v>30</v>
+      </c>
+      <c r="W40" t="s">
+        <v>9</v>
+      </c>
+      <c r="X40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
@@ -2919,8 +3949,44 @@
       <c r="T41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" t="s">
+        <v>133</v>
+      </c>
+      <c r="W41" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
       <c r="E43" t="s">
         <v>61</v>
       </c>
@@ -2969,8 +4035,44 @@
       <c r="T43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" t="s">
+        <v>61</v>
+      </c>
+      <c r="V43" t="s">
+        <v>2</v>
+      </c>
+      <c r="W43" t="s">
+        <v>61</v>
+      </c>
+      <c r="X43" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
@@ -3019,8 +4121,44 @@
       <c r="T44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" t="s">
+        <v>134</v>
+      </c>
+      <c r="W44" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
@@ -3069,8 +4207,44 @@
       <c r="T45" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" t="s">
+        <v>7</v>
+      </c>
+      <c r="V45" t="s">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s">
+        <v>7</v>
+      </c>
+      <c r="X45" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
@@ -3119,8 +4293,44 @@
       <c r="T46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" t="s">
+        <v>75</v>
+      </c>
+      <c r="W46" t="s">
+        <v>9</v>
+      </c>
+      <c r="X46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
@@ -3169,8 +4379,44 @@
       <c r="T47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="U47" t="s">
+        <v>11</v>
+      </c>
+      <c r="V47" t="s">
+        <v>135</v>
+      </c>
+      <c r="W47" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
       <c r="E49" t="s">
         <v>63</v>
       </c>
@@ -3219,8 +4465,44 @@
       <c r="T49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="U49" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" t="s">
+        <v>2</v>
+      </c>
+      <c r="W49" t="s">
+        <v>63</v>
+      </c>
+      <c r="X49" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +4551,44 @@
       <c r="T50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>3</v>
+      </c>
+      <c r="V50" t="s">
+        <v>136</v>
+      </c>
+      <c r="W50" t="s">
+        <v>3</v>
+      </c>
+      <c r="X50" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
@@ -3319,8 +4637,44 @@
       <c r="T51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" t="s">
+        <v>29</v>
+      </c>
+      <c r="W51" t="s">
+        <v>7</v>
+      </c>
+      <c r="X51" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
@@ -3369,8 +4723,44 @@
       <c r="T52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" t="s">
+        <v>113</v>
+      </c>
+      <c r="W52" t="s">
+        <v>9</v>
+      </c>
+      <c r="X52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
@@ -3418,6 +4808,698 @@
       </c>
       <c r="T53" t="s">
         <v>32</v>
+      </c>
+      <c r="U53" t="s">
+        <v>11</v>
+      </c>
+      <c r="V53" t="s">
+        <v>137</v>
+      </c>
+      <c r="W53" t="s">
+        <v>11</v>
+      </c>
+      <c r="X53" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124579FA-5EA8-4E3C-994D-603905C8077B}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>740</v>
+      </c>
+      <c r="C2" s="1">
+        <v>400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>740</v>
+      </c>
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>740</v>
+      </c>
+      <c r="C4" s="1">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>740</v>
+      </c>
+      <c r="C5" s="1">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>740</v>
+      </c>
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>740</v>
+      </c>
+      <c r="C7" s="1">
+        <v>800</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>740</v>
+      </c>
+      <c r="C8" s="1">
+        <v>800</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>740</v>
+      </c>
+      <c r="C9" s="1">
+        <v>800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>740</v>
+      </c>
+      <c r="C10" s="1">
+        <v>800</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>740</v>
+      </c>
+      <c r="C11" s="1">
+        <v>800</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>740</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>740</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>740</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>740</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>740</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>740</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>740</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>740</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>740</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>740</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>740</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>740</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>740</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>740</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>740</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>740</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>740</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>740</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>740</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>740</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <v>740</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>740</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>740</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1">
+        <v>740</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1">
+        <v>740</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1">
+        <v>740</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>740</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Canadian-Parliament/Abortion/results.xlsx
+++ b/Canadian-Parliament/Abortion/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9B849-5A63-42D1-A440-F5BACC33EF78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D38093-4F0C-42E4-88E0-4B759DE4EF96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="226">
   <si>
     <t>Topic:</t>
   </si>
@@ -1050,6 +1050,18 @@
       <t xml:space="preserve"> text in one of the previous experiments</t>
     </r>
   </si>
+  <si>
+    <t>Sheets content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     dynamic (1): Results with data segmentation for unknown text and Party. In the dispersion graph the x-axis represents different values for the legth of the known text, and the y-axis the likelihhood for each Party (colors). The graph on the left in the accumulated values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     dynamic (2): Results with data segmentation for unknown text and Party. Repesent the same as in dynamic (1) dispersion graph, but with horizontal bars for clarification and comparison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     dynamic and graph (3): Analyse the changes in the output for different extension of the unknown text for the case Abortion06. The extension are 500, 1000, 1900 and 3300 words.</t>
+  </si>
 </sst>
 </file>
 
@@ -1434,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1518,6 +1530,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1837,28 +1853,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.442</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46800000000000003</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47699999999999998</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.874</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94699999999999995</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,19 +1964,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.39600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40899999999999997</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.441</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46400000000000002</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2059,28 +2075,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.78400000000000003</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47299999999999998</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,28 +2186,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76900000000000002</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,28 +2297,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.432</c:v>
+                  <c:v>0.46100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.375</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,19 +2760,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.442</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78400000000000003</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,19 +2837,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.46800000000000003</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.39600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,16 +2917,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40899999999999997</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,19 +2991,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.47699999999999998</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.441</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.80900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,19 +3068,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46400000000000002</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47299999999999998</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76900000000000002</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.432</c:v>
+                  <c:v>0.46100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,16 +3145,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.874</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.375</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,16 +3221,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,16 +3297,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94699999999999995</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,6 +8380,222 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>126347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>113168</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>239515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Estrella: 5 puntas 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E6CA40-B099-43B6-B8F9-26ABF25E8199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301301" y="10652444"/>
+          <a:ext cx="113168" cy="113168"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6607</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Estrella: 5 puntas 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F5B5A9-EDB0-4CF8-BB5F-F802CBED8369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307908" y="11057548"/>
+          <a:ext cx="113168" cy="113168"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3499</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>71528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116667</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>184696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Estrella: 5 puntas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDC216B-0BC9-4A8E-8E10-3C782F6D756C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="11268263"/>
+          <a:ext cx="113168" cy="113168"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8685,18 +8917,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>492281</xdr:colOff>
+      <xdr:colOff>747829</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>116159</xdr:colOff>
+      <xdr:colOff>371707</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>153095</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Party 2">
@@ -8719,7 +8951,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8729,7 +8961,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9924354" y="0"/>
+              <a:off x="9204170" y="0"/>
               <a:ext cx="5664122" cy="896510"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12852,9 +13084,9 @@
   <pivotFields count="5">
     <pivotField showAll="0">
       <items count="19">
-        <item x="10"/>
+        <item h="1" x="10"/>
         <item h="1" x="11"/>
-        <item h="1" x="12"/>
+        <item x="12"/>
         <item h="1" x="13"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
@@ -14232,9 +14464,9 @@
   <data>
     <tabular pivotCacheId="925239530">
       <items count="18">
-        <i x="10" s="1"/>
+        <i x="10"/>
         <i x="11"/>
-        <i x="12"/>
+        <i x="12" s="1"/>
         <i x="13"/>
         <i x="0"/>
         <i x="1"/>
@@ -14688,10 +14920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41661344-C1DB-4233-934C-0017D2B6A063}">
-  <dimension ref="B1:B15"/>
+  <dimension ref="B1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14773,6 +15005,26 @@
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
     </row>
+    <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14784,7 +15036,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18911,7 +19163,7 @@
   <dimension ref="A1:F519"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27766,7 +28018,7 @@
   <dimension ref="A6:J39"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27825,31 +28077,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="21">
-        <v>0.442</v>
+        <v>0.45</v>
       </c>
       <c r="C8" s="21">
-        <v>0.46800000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="21">
         <v>0.5</v>
       </c>
       <c r="E8" s="21">
-        <v>0.47699999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="F8" s="21">
-        <v>0.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G8" s="21">
-        <v>0.874</v>
+        <v>0.47</v>
       </c>
       <c r="H8" s="21">
-        <v>0.91500000000000004</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I8" s="21">
-        <v>0.94699999999999995</v>
+        <v>0.39</v>
       </c>
       <c r="J8" s="21">
-        <v>0.64037500000000003</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -27857,25 +28109,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="21">
-        <v>0.38500000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C9" s="21">
-        <v>0.38900000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D9" s="21">
-        <v>0.40899999999999997</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E9" s="21">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="F9" s="21">
-        <v>0.46400000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
-        <v>0.41760000000000003</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -27883,31 +28135,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="21">
-        <v>0.78400000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="C10" s="21">
         <v>0.5</v>
       </c>
       <c r="D10" s="21">
-        <v>0.47599999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="21">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F10" s="21">
         <v>0.5</v>
       </c>
-      <c r="F10" s="21">
-        <v>0.47299999999999998</v>
-      </c>
       <c r="G10" s="21">
-        <v>0.43</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="H10" s="21">
-        <v>0.42499999999999999</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="I10" s="21">
-        <v>0.38500000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="J10" s="21">
-        <v>0.49662499999999998</v>
+        <v>0.67325000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -27915,31 +28167,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="21">
-        <v>0.48499999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C11" s="21">
-        <v>0.82799999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="21">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="21">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F11" s="21">
-        <v>0.76900000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="G11" s="21">
-        <v>0.46500000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="H11" s="21">
-        <v>0.44</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I11" s="21">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="J11" s="21">
-        <v>0.58962499999999995</v>
+        <v>0.52237499999999992</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -27947,31 +28199,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="21">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="C12" s="21">
-        <v>0.43</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D12" s="21">
-        <v>0.44500000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E12" s="21">
-        <v>0.45</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="F12" s="21">
-        <v>0.432</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G12" s="21">
-        <v>0.375</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="H12" s="21">
-        <v>0.35499999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I12" s="21">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="J12" s="21">
-        <v>0.41087499999999999</v>
+        <v>0.45987499999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -28009,11 +28261,11 @@
       </c>
       <c r="B16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",400,"Party","Bloc_Quebecois")</f>
-        <v>0.442</v>
+        <v>0.45</v>
       </c>
       <c r="C16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",800,"Party","Bloc_Quebecois")</f>
-        <v>0.46800000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1200,"Party","Bloc_Quebecois")</f>
@@ -28021,23 +28273,23 @@
       </c>
       <c r="E16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1600,"Party","Bloc_Quebecois")</f>
-        <v>0.47699999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="F16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",2000,"Party","Bloc_Quebecois")</f>
-        <v>0.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",3000,"Party","Bloc_Quebecois")</f>
-        <v>0.874</v>
+        <v>0.47</v>
       </c>
       <c r="H16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",4000,"Party","Bloc_Quebecois")</f>
-        <v>0.91500000000000004</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I16">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",5000,"Party","Bloc_Quebecois")</f>
-        <v>0.94699999999999995</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -28046,23 +28298,23 @@
       </c>
       <c r="B17">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",400,"Party","Independent")</f>
-        <v>0.38500000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C17">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",800,"Party","Independent")</f>
-        <v>0.38900000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D17">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1200,"Party","Independent")</f>
-        <v>0.40899999999999997</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E17">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1600,"Party","Independent")</f>
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="F17">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",2000,"Party","Independent")</f>
-        <v>0.46400000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",3000,"Party","Independent")</f>
@@ -28083,7 +28335,7 @@
       </c>
       <c r="B18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",400,"Party","Liberal")</f>
-        <v>0.78400000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="C18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",800,"Party","Liberal")</f>
@@ -28091,27 +28343,27 @@
       </c>
       <c r="D18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1200,"Party","Liberal")</f>
-        <v>0.47599999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1600,"Party","Liberal")</f>
-        <v>0.5</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",2000,"Party","Liberal")</f>
-        <v>0.47299999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",3000,"Party","Liberal")</f>
-        <v>0.43</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="H18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",4000,"Party","Liberal")</f>
-        <v>0.42499999999999999</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="I18">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",5000,"Party","Liberal")</f>
-        <v>0.38500000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -28120,35 +28372,35 @@
       </c>
       <c r="B19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",400,"Party","New_Democrat")</f>
-        <v>0.48499999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",800,"Party","New_Democrat")</f>
-        <v>0.82799999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1200,"Party","New_Democrat")</f>
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1600,"Party","New_Democrat")</f>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",2000,"Party","New_Democrat")</f>
-        <v>0.76900000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="G19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",3000,"Party","New_Democrat")</f>
-        <v>0.46500000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="H19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",4000,"Party","New_Democrat")</f>
-        <v>0.44</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I19">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",5000,"Party","New_Democrat")</f>
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -28157,35 +28409,35 @@
       </c>
       <c r="B20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",400,"Party","Progressive_Conservative")</f>
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="C20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",800,"Party","Progressive_Conservative")</f>
-        <v>0.43</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1200,"Party","Progressive_Conservative")</f>
-        <v>0.44500000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",1600,"Party","Progressive_Conservative")</f>
-        <v>0.45</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="F20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",2000,"Party","Progressive_Conservative")</f>
-        <v>0.432</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",3000,"Party","Progressive_Conservative")</f>
-        <v>0.375</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="H20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",4000,"Party","Progressive_Conservative")</f>
-        <v>0.35499999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I20">
         <f>GETPIVOTDATA("Likelihood",$A$6,"known_Lenght",5000,"Party","Progressive_Conservative")</f>
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -28258,7 +28510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366B0A9-D086-45E7-B33D-5628FECC6704}">
   <dimension ref="A6:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
